--- a/data/pca/factorExposure/factorExposure_2013-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00237368166607631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001698771506833064</v>
+      </c>
+      <c r="C2">
+        <v>0.03154411756705581</v>
+      </c>
+      <c r="D2">
+        <v>0.003165221506493029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001977975222881205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006395598917155073</v>
+      </c>
+      <c r="C4">
+        <v>0.08344350041976407</v>
+      </c>
+      <c r="D4">
+        <v>0.08040585615586518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006855151604952276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0137380187841753</v>
+      </c>
+      <c r="C6">
+        <v>0.1066265816957633</v>
+      </c>
+      <c r="D6">
+        <v>0.03654049536983808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001397417213824869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005155471676488914</v>
+      </c>
+      <c r="C7">
+        <v>0.05278903696238164</v>
+      </c>
+      <c r="D7">
+        <v>0.03696205761127063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002616152177483911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00595082516424356</v>
+      </c>
+      <c r="C8">
+        <v>0.03771936500050026</v>
+      </c>
+      <c r="D8">
+        <v>0.04154886001954471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005971410548350488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004318446797025574</v>
+      </c>
+      <c r="C9">
+        <v>0.06782604508411472</v>
+      </c>
+      <c r="D9">
+        <v>0.07062783863814122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005561539857187661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005986761920863739</v>
+      </c>
+      <c r="C10">
+        <v>0.0834305010368989</v>
+      </c>
+      <c r="D10">
+        <v>-0.2149412717421599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005753445870009091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005247259389745523</v>
+      </c>
+      <c r="C11">
+        <v>0.07932534422394652</v>
+      </c>
+      <c r="D11">
+        <v>0.06545462211793293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0008405388872688054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004149028405558764</v>
+      </c>
+      <c r="C12">
+        <v>0.0633257259230086</v>
+      </c>
+      <c r="D12">
+        <v>0.04691396933665638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003279867905057231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008857207180647633</v>
+      </c>
+      <c r="C13">
+        <v>0.06947521166963695</v>
+      </c>
+      <c r="D13">
+        <v>0.0705565022427882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004631216011631501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002189396147887033</v>
+      </c>
+      <c r="C14">
+        <v>0.04673038724485776</v>
+      </c>
+      <c r="D14">
+        <v>0.0161121147241187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003319773374601574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005931520866948156</v>
+      </c>
+      <c r="C15">
+        <v>0.03719587554806922</v>
+      </c>
+      <c r="D15">
+        <v>0.04305282413687051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003498493996313321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005304283553921299</v>
+      </c>
+      <c r="C16">
+        <v>0.06455110734227588</v>
+      </c>
+      <c r="D16">
+        <v>0.04978349826326527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001572525705192301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009447825405331851</v>
+      </c>
+      <c r="C20">
+        <v>0.06496452066138164</v>
+      </c>
+      <c r="D20">
+        <v>0.05825455780362632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.003107019629688134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009985032761516657</v>
+      </c>
+      <c r="C21">
+        <v>0.02549583117090895</v>
+      </c>
+      <c r="D21">
+        <v>0.03642744753348045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01709434036432028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006938166618855678</v>
+      </c>
+      <c r="C22">
+        <v>0.08736714348142922</v>
+      </c>
+      <c r="D22">
+        <v>0.103682769989352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01734797427560015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006699873700828947</v>
+      </c>
+      <c r="C23">
+        <v>0.08993187789899766</v>
+      </c>
+      <c r="D23">
+        <v>0.1005775922265986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0045881706387916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004867199542250844</v>
+      </c>
+      <c r="C24">
+        <v>0.07207050303369832</v>
+      </c>
+      <c r="D24">
+        <v>0.06044853966219012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005668013281012362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003140026667986995</v>
+      </c>
+      <c r="C25">
+        <v>0.07704749546582941</v>
+      </c>
+      <c r="D25">
+        <v>0.06444401178512842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006976269643117199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003800794680271159</v>
+      </c>
+      <c r="C26">
+        <v>0.04248130033417466</v>
+      </c>
+      <c r="D26">
+        <v>0.02672660082457486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004498627370291533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0002109876135392289</v>
+      </c>
+      <c r="C28">
+        <v>0.1328030116080365</v>
+      </c>
+      <c r="D28">
+        <v>-0.3050475087214389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001893741658060827</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003547824782472905</v>
+      </c>
+      <c r="C29">
+        <v>0.04947500595992336</v>
+      </c>
+      <c r="D29">
+        <v>0.02015937972237039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006888108667027872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009722659817058023</v>
+      </c>
+      <c r="C30">
+        <v>0.1340933248523181</v>
+      </c>
+      <c r="D30">
+        <v>0.1113575732694168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1.745077716933704e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006189862808258925</v>
+      </c>
+      <c r="C31">
+        <v>0.04649219827984815</v>
+      </c>
+      <c r="D31">
+        <v>0.03638254118520181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0006811793775748526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004343069051310833</v>
+      </c>
+      <c r="C32">
+        <v>0.04101791036601987</v>
+      </c>
+      <c r="D32">
+        <v>0.01636978428149202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003960043081685213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008178444671437303</v>
+      </c>
+      <c r="C33">
+        <v>0.08202887746070392</v>
+      </c>
+      <c r="D33">
+        <v>0.07627416498291595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005692099097510894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003912139061510508</v>
+      </c>
+      <c r="C34">
+        <v>0.05634296756019377</v>
+      </c>
+      <c r="D34">
+        <v>0.04409660064915673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004208356513926433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005055257009438084</v>
+      </c>
+      <c r="C35">
+        <v>0.03943867611251919</v>
+      </c>
+      <c r="D35">
+        <v>0.01524809004895529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005051558428942883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001289993111074901</v>
+      </c>
+      <c r="C36">
+        <v>0.02549825316970121</v>
+      </c>
+      <c r="D36">
+        <v>0.02357628111475073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001867578831672778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009496020636947294</v>
+      </c>
+      <c r="C38">
+        <v>0.03554122901350493</v>
+      </c>
+      <c r="D38">
+        <v>0.02963395310165032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01503558399157954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0006411088448044732</v>
+      </c>
+      <c r="C39">
+        <v>0.1123232398924431</v>
+      </c>
+      <c r="D39">
+        <v>0.08565559783449292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008938308981756985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002619807602137186</v>
+      </c>
+      <c r="C40">
+        <v>0.08516402752250742</v>
+      </c>
+      <c r="D40">
+        <v>0.02922262775430838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001697721533775106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007622190929024537</v>
+      </c>
+      <c r="C41">
+        <v>0.04121121976456124</v>
+      </c>
+      <c r="D41">
+        <v>0.03570871409257191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001951580626380944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003248174658555518</v>
+      </c>
+      <c r="C43">
+        <v>0.05173584440786932</v>
+      </c>
+      <c r="D43">
+        <v>0.02920438049150629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005429695916367677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00409768628636513</v>
+      </c>
+      <c r="C44">
+        <v>0.1048608493134945</v>
+      </c>
+      <c r="D44">
+        <v>0.0866883490592972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.003001704738908292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002661119983667878</v>
+      </c>
+      <c r="C46">
+        <v>0.03417809883246049</v>
+      </c>
+      <c r="D46">
+        <v>0.03393957876203941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002279159508965474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002939212850439107</v>
+      </c>
+      <c r="C47">
+        <v>0.03884451643778748</v>
+      </c>
+      <c r="D47">
+        <v>0.02893336373027329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003865026179922855</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006624777075701527</v>
+      </c>
+      <c r="C48">
+        <v>0.03140018191008005</v>
+      </c>
+      <c r="D48">
+        <v>0.0305225830095231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01494983987363576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01457818470746246</v>
+      </c>
+      <c r="C49">
+        <v>0.1673172666133269</v>
+      </c>
+      <c r="D49">
+        <v>0.03869496111051357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003051149955994601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004229869733663882</v>
+      </c>
+      <c r="C50">
+        <v>0.04237867139119523</v>
+      </c>
+      <c r="D50">
+        <v>0.03864573155113349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002278172114598118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004106997819913289</v>
+      </c>
+      <c r="C51">
+        <v>0.02026298941481169</v>
+      </c>
+      <c r="D51">
+        <v>0.03395316424730702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002124227878089502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02067522090799818</v>
+      </c>
+      <c r="C53">
+        <v>0.1644434108425694</v>
+      </c>
+      <c r="D53">
+        <v>0.05705971715240746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0009377492677826631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008720317496574268</v>
+      </c>
+      <c r="C54">
+        <v>0.05512029312642469</v>
+      </c>
+      <c r="D54">
+        <v>0.04139276703499766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005948306320877366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.01003355180695211</v>
+      </c>
+      <c r="C55">
+        <v>0.1047606797509778</v>
+      </c>
+      <c r="D55">
+        <v>0.05507966429452767</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002338041778823313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01983139750863601</v>
+      </c>
+      <c r="C56">
+        <v>0.1697334991524574</v>
+      </c>
+      <c r="D56">
+        <v>0.05632488698575028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008021439784926556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01979938885652493</v>
+      </c>
+      <c r="C58">
+        <v>0.1003347422094788</v>
+      </c>
+      <c r="D58">
+        <v>0.08108224846567848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007509689289133399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009019382213555751</v>
+      </c>
+      <c r="C59">
+        <v>0.1729832113644269</v>
+      </c>
+      <c r="D59">
+        <v>-0.2710388105492894</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.007724360368173622</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02361602534742146</v>
+      </c>
+      <c r="C60">
+        <v>0.2197007899467188</v>
+      </c>
+      <c r="D60">
+        <v>0.0334744198887314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01739404376704326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001795492395650707</v>
+      </c>
+      <c r="C61">
+        <v>0.09423854914899538</v>
+      </c>
+      <c r="D61">
+        <v>0.06366698143967504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1870261061241967</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449038020263219</v>
+      </c>
+      <c r="C62">
+        <v>0.06901141227771321</v>
+      </c>
+      <c r="D62">
+        <v>0.05142050326056285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002849838586893238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006853837095186627</v>
+      </c>
+      <c r="C63">
+        <v>0.05840752749258667</v>
+      </c>
+      <c r="D63">
+        <v>0.02728295919918624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006435880152784421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01572147513127162</v>
+      </c>
+      <c r="C64">
+        <v>0.09727620237834787</v>
+      </c>
+      <c r="D64">
+        <v>0.06720069424520152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0002891159714605068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01727041737728879</v>
+      </c>
+      <c r="C65">
+        <v>0.1115294632626009</v>
+      </c>
+      <c r="D65">
+        <v>0.03343414099709455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01170930664138602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01278960591244124</v>
+      </c>
+      <c r="C66">
+        <v>0.1486627112198033</v>
+      </c>
+      <c r="D66">
+        <v>0.1248567793245296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.001834338984762446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01540959014908677</v>
+      </c>
+      <c r="C67">
+        <v>0.06422317625725364</v>
+      </c>
+      <c r="D67">
+        <v>0.04061609019987331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007793596885778052</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001608345264179057</v>
+      </c>
+      <c r="C68">
+        <v>0.1170326420127344</v>
+      </c>
+      <c r="D68">
+        <v>-0.2623901007370075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003072062527529115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00540869086998298</v>
+      </c>
+      <c r="C69">
+        <v>0.04631724467965775</v>
+      </c>
+      <c r="D69">
+        <v>0.04575574615433881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001692294803324802</v>
+      </c>
+      <c r="C70">
+        <v>0.002006938511015111</v>
+      </c>
+      <c r="D70">
+        <v>0.002414894166079563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003443940301961375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006430436825229043</v>
+      </c>
+      <c r="C71">
+        <v>0.1195865486354254</v>
+      </c>
+      <c r="D71">
+        <v>-0.2799938920916991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009259282551574967</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01564225946374016</v>
+      </c>
+      <c r="C72">
+        <v>0.1481719950917128</v>
+      </c>
+      <c r="D72">
+        <v>0.03242883036312486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01354640535817555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03193901051382195</v>
+      </c>
+      <c r="C73">
+        <v>0.2823143364437551</v>
+      </c>
+      <c r="D73">
+        <v>0.0532119364890994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006331844061373291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002117131139099823</v>
+      </c>
+      <c r="C74">
+        <v>0.1029445105712826</v>
+      </c>
+      <c r="D74">
+        <v>0.04512703643464643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007490753690990029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01089015687900977</v>
+      </c>
+      <c r="C75">
+        <v>0.1314815251711121</v>
+      </c>
+      <c r="D75">
+        <v>0.04449463426425415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01101801140627461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0216137592621009</v>
+      </c>
+      <c r="C76">
+        <v>0.1424850058052092</v>
+      </c>
+      <c r="D76">
+        <v>0.07591665074958164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002322557820807231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02337815798487783</v>
+      </c>
+      <c r="C77">
+        <v>0.1284427152481088</v>
+      </c>
+      <c r="D77">
+        <v>0.0698113821752564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007375367105412203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01495711264411819</v>
+      </c>
+      <c r="C78">
+        <v>0.09007085015476633</v>
+      </c>
+      <c r="D78">
+        <v>0.06869442591676404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02605645533567607</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03712518929031417</v>
+      </c>
+      <c r="C79">
+        <v>0.1543706092435059</v>
+      </c>
+      <c r="D79">
+        <v>0.0407343961848644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004639015478058773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01095482335936404</v>
+      </c>
+      <c r="C80">
+        <v>0.04199463881530397</v>
+      </c>
+      <c r="D80">
+        <v>0.03523390454950248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>7.07312583783329e-06</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01494083078714689</v>
+      </c>
+      <c r="C81">
+        <v>0.1193391121662375</v>
+      </c>
+      <c r="D81">
+        <v>0.06485006037744698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006713858163192426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01935835504736007</v>
+      </c>
+      <c r="C82">
+        <v>0.1402090544874205</v>
+      </c>
+      <c r="D82">
+        <v>0.05128173593295481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007504673896518639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009644031095905911</v>
+      </c>
+      <c r="C83">
+        <v>0.05152424407858101</v>
+      </c>
+      <c r="D83">
+        <v>0.05678843371858384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0134179552273208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01234910097589553</v>
+      </c>
+      <c r="C84">
+        <v>0.03002241167885812</v>
+      </c>
+      <c r="D84">
+        <v>-0.000104143737988479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01550537458447576</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0286061843110835</v>
+      </c>
+      <c r="C85">
+        <v>0.1281547869916267</v>
+      </c>
+      <c r="D85">
+        <v>0.05628276576635825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.004133926285680967</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00487176368339767</v>
+      </c>
+      <c r="C86">
+        <v>0.0475213338093664</v>
+      </c>
+      <c r="D86">
+        <v>0.02199399139082919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008379984222095469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01074513422102136</v>
+      </c>
+      <c r="C87">
+        <v>0.1243253788740781</v>
+      </c>
+      <c r="D87">
+        <v>0.08087826518484491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.014589098532615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002837287942408187</v>
+      </c>
+      <c r="C88">
+        <v>0.07118278447130873</v>
+      </c>
+      <c r="D88">
+        <v>0.02030820090978314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01516427055148174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00180882935323406</v>
+      </c>
+      <c r="C89">
+        <v>0.1691336592535938</v>
+      </c>
+      <c r="D89">
+        <v>-0.3387583566702421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001804504562949407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007872830704181955</v>
+      </c>
+      <c r="C90">
+        <v>0.1517973412153552</v>
+      </c>
+      <c r="D90">
+        <v>-0.3134554988734568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0002920267927289046</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01023566815164392</v>
+      </c>
+      <c r="C91">
+        <v>0.1018857680963118</v>
+      </c>
+      <c r="D91">
+        <v>0.02573015971178238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01601929127940253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001004425513056611</v>
+      </c>
+      <c r="C92">
+        <v>0.1595355173798578</v>
+      </c>
+      <c r="D92">
+        <v>-0.3239301219573037</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001248097462383106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005128370595487781</v>
+      </c>
+      <c r="C93">
+        <v>0.1329794091132454</v>
+      </c>
+      <c r="D93">
+        <v>-0.3101278679347605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001457138091522098</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.022345773478692</v>
+      </c>
+      <c r="C94">
+        <v>0.1553283418695291</v>
+      </c>
+      <c r="D94">
+        <v>0.03887724242332868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.007665970572131748</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01673185124113619</v>
+      </c>
+      <c r="C95">
+        <v>0.1206337721061246</v>
+      </c>
+      <c r="D95">
+        <v>0.06886258355844957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004701119585091041</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0341671029954827</v>
+      </c>
+      <c r="C97">
+        <v>0.1711331019598063</v>
+      </c>
+      <c r="D97">
+        <v>0.04758612276811194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007718672706887944</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03635921007141565</v>
+      </c>
+      <c r="C98">
+        <v>0.2571985900943283</v>
+      </c>
+      <c r="D98">
+        <v>0.04640797298344751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9797581943399302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822709892340395</v>
+      </c>
+      <c r="C99">
+        <v>-0.1105775116991517</v>
+      </c>
+      <c r="D99">
+        <v>-0.03593218361064062</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001845338917033478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003592607747429294</v>
+      </c>
+      <c r="C101">
+        <v>0.04956312815004518</v>
+      </c>
+      <c r="D101">
+        <v>0.02018929601247549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
